--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Tools\School\Semester 4\TortillasPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59120641-D4D4-4C4E-B025-8721D991096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843406D-DE49-4AED-9C3C-A30F2960A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feestdag" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>Zomervakantie</t>
   </si>
   <si>
-    <t>Festday</t>
+    <t>Feastday</t>
   </si>
 </sst>
 </file>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6189257D-7FCC-4CB7-A40F-4F01D2F5C140}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,9 +1389,10 @@
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,79 +1400,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45221</v>
+        <v>44856</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45222</v>
+        <v>44857</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45223</v>
+        <v>44858</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45224</v>
+        <v>44859</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45225</v>
+        <v>44860</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45226</v>
+        <v>44861</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45227</v>
+        <v>44862</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45228</v>
+        <v>44863</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45229</v>
+        <v>44864</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44919</v>
       </c>
@@ -1479,79 +1498,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44920</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44921</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44922</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44923</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44924</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44925</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44926</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44927</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44928</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44929</v>
       </c>
@@ -1559,7 +1596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44930</v>
       </c>
@@ -1567,7 +1604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44931</v>
       </c>
@@ -1575,7 +1612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44932</v>
       </c>
@@ -1583,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44933</v>
       </c>
@@ -1591,7 +1628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44934</v>
       </c>
@@ -1599,7 +1636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44975</v>
       </c>
@@ -1607,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44976</v>
       </c>
@@ -1615,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44977</v>
       </c>
@@ -1623,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44978</v>
       </c>
@@ -1631,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44979</v>
       </c>
@@ -1639,7 +1676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44980</v>
       </c>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Tools\School\Semester 4\TortillasPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843406D-DE49-4AED-9C3C-A30F2960A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B0ACEA-3A90-4338-AA23-2C6EB00A8305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Feastday</t>
+  </si>
+  <si>
+    <t>Dutch Design Week</t>
   </si>
 </sst>
 </file>
@@ -412,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,129 +1114,264 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45220</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45227</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -1380,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6189257D-7FCC-4CB7-A40F-4F01D2F5C140}">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
